--- a/data/outputs/OR_altmetric/34.xlsx
+++ b/data/outputs/OR_altmetric/34.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE175"/>
+  <dimension ref="A1:CF175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1037,6 +1042,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>3.35</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1288,6 +1296,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1543,6 +1554,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1792,6 +1806,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>27.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2045,6 +2062,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2300,6 +2320,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2555,6 +2578,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2809,6 +2835,9 @@
       </c>
       <c r="CE9" t="n">
         <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="10">
@@ -3057,6 +3086,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>28.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3312,6 +3344,9 @@
       <c r="CE11" t="n">
         <v>1</v>
       </c>
+      <c r="CF11" t="n">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3571,6 +3606,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3820,6 +3858,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>78.84999999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4083,6 +4124,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4338,6 +4382,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4601,6 +4648,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4848,6 +4898,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5097,6 +5150,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>53.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5364,6 +5420,9 @@
       <c r="CE19" t="n">
         <v>1</v>
       </c>
+      <c r="CF19" t="n">
+        <v>20.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5623,6 +5682,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5882,6 +5944,9 @@
       <c r="CE21" t="n">
         <v>1</v>
       </c>
+      <c r="CF21" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6136,6 +6201,9 @@
       </c>
       <c r="CE22" t="n">
         <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="23">
@@ -6382,6 +6450,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6635,6 +6706,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6894,6 +6968,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>22.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7157,6 +7234,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>53.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7408,6 +7488,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7657,6 +7740,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7920,6 +8006,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8171,6 +8260,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8420,6 +8512,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8674,6 +8769,9 @@
       </c>
       <c r="CE32" t="n">
         <v>0</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>18.16</v>
       </c>
     </row>
     <row r="33">
@@ -8922,6 +9020,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>24.05</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9179,6 +9280,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9442,6 +9546,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9691,6 +9798,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9946,6 +10056,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10209,6 +10322,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>80.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10458,6 +10574,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10721,6 +10840,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>8.25</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10974,6 +11096,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11233,6 +11358,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11492,6 +11620,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11741,6 +11872,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12004,6 +12138,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12259,6 +12396,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12522,6 +12662,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12785,6 +12928,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>360.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13040,6 +13186,9 @@
         <v>0</v>
       </c>
       <c r="CE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13287,6 +13436,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13544,6 +13696,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13809,6 +13964,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14072,6 +14230,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14334,6 +14495,9 @@
       </c>
       <c r="CE54" t="n">
         <v>0</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>17.75</v>
       </c>
     </row>
     <row r="55">
@@ -14580,6 +14744,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14839,6 +15006,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15090,6 +15260,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15345,6 +15518,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15604,6 +15780,9 @@
         <v>0</v>
       </c>
       <c r="CE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15851,6 +16030,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16102,6 +16284,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16356,6 +16541,9 @@
       </c>
       <c r="CE62" t="n">
         <v>0</v>
+      </c>
+      <c r="CF62" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="63">
@@ -16604,6 +16792,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16851,6 +17042,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17104,6 +17298,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17369,6 +17566,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17616,6 +17816,9 @@
         <v>0</v>
       </c>
       <c r="CE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17863,6 +18066,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18108,6 +18314,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18357,6 +18566,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18611,6 +18823,9 @@
       </c>
       <c r="CE71" t="n">
         <v>0</v>
+      </c>
+      <c r="CF71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -18857,6 +19072,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -19120,6 +19338,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19373,6 +19594,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19628,6 +19852,9 @@
         <v>0</v>
       </c>
       <c r="CE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19873,6 +20100,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>16.75</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -20135,6 +20365,9 @@
       </c>
       <c r="CE77" t="n">
         <v>0</v>
+      </c>
+      <c r="CF77" t="n">
+        <v>109.742</v>
       </c>
     </row>
     <row r="78">
@@ -20383,6 +20616,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20636,6 +20872,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20897,6 +21136,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -21150,6 +21392,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -21401,6 +21646,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21654,6 +21902,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21903,6 +22154,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -22166,6 +22420,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -22417,6 +22674,9 @@
         <v>0</v>
       </c>
       <c r="CE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22664,6 +22924,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22923,6 +23186,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -23178,6 +23444,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -23431,6 +23700,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23688,6 +23960,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23945,6 +24220,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -24202,6 +24480,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -24461,6 +24742,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24720,6 +25004,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24983,6 +25270,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -25241,6 +25531,9 @@
       </c>
       <c r="CE97" t="n">
         <v>0</v>
+      </c>
+      <c r="CF97" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="98">
@@ -25489,6 +25782,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>3.35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25744,6 +26040,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>4.85</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25993,6 +26292,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -26246,6 +26548,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -26505,6 +26810,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26754,6 +27062,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -27012,6 +27323,9 @@
       </c>
       <c r="CE104" t="n">
         <v>0</v>
+      </c>
+      <c r="CF104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -27258,6 +27572,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -27520,6 +27837,9 @@
       </c>
       <c r="CE106" t="n">
         <v>0</v>
+      </c>
+      <c r="CF106" t="n">
+        <v>54.2</v>
       </c>
     </row>
     <row r="107">
@@ -27768,6 +28088,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -28027,6 +28350,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -28286,6 +28612,9 @@
         <v>0</v>
       </c>
       <c r="CE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28533,6 +28862,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28786,6 +29118,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -29040,6 +29375,9 @@
       </c>
       <c r="CE112" t="n">
         <v>0</v>
+      </c>
+      <c r="CF112" t="n">
+        <v>28.024</v>
       </c>
     </row>
     <row r="113">
@@ -29288,6 +29626,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -29533,6 +29874,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29783,6 +30127,9 @@
       </c>
       <c r="CE115" t="n">
         <v>1</v>
+      </c>
+      <c r="CF115" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="116">
@@ -30031,6 +30378,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -30276,6 +30626,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -30535,6 +30888,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>45.642</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30789,6 +31145,9 @@
       </c>
       <c r="CE119" t="n">
         <v>0</v>
+      </c>
+      <c r="CF119" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="120">
@@ -31037,6 +31396,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -31284,6 +31646,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -31529,6 +31894,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -31774,6 +32142,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -32019,6 +32390,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -32274,6 +32648,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -32527,6 +32904,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -32784,6 +33164,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -33033,6 +33416,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -33291,6 +33677,9 @@
       </c>
       <c r="CE129" t="n">
         <v>0</v>
+      </c>
+      <c r="CF129" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="130">
@@ -33543,6 +33932,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -33796,6 +34188,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -34058,6 +34453,9 @@
       </c>
       <c r="CE132" t="n">
         <v>0</v>
+      </c>
+      <c r="CF132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -34306,6 +34704,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -34561,6 +34962,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -34812,6 +35216,9 @@
         <v>0</v>
       </c>
       <c r="CE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35061,6 +35468,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -35315,6 +35725,9 @@
       </c>
       <c r="CE137" t="n">
         <v>0</v>
+      </c>
+      <c r="CF137" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="138">
@@ -35563,6 +35976,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -35814,6 +36230,9 @@
         <v>0</v>
       </c>
       <c r="CE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36063,6 +36482,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -36310,6 +36732,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -36565,6 +36990,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -36828,6 +37256,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -37083,6 +37514,9 @@
       <c r="CE144" t="n">
         <v>0</v>
       </c>
+      <c r="CF144" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -37336,6 +37770,9 @@
       <c r="CE145" t="n">
         <v>0</v>
       </c>
+      <c r="CF145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -37587,6 +38024,9 @@
         <v>0</v>
       </c>
       <c r="CE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37836,6 +38276,9 @@
       <c r="CE147" t="n">
         <v>0</v>
       </c>
+      <c r="CF147" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -38081,6 +38524,9 @@
       <c r="CE148" t="n">
         <v>0</v>
       </c>
+      <c r="CF148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -38326,6 +38772,9 @@
       <c r="CE149" t="n">
         <v>0</v>
       </c>
+      <c r="CF149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -38579,6 +39028,9 @@
       <c r="CE150" t="n">
         <v>0</v>
       </c>
+      <c r="CF150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -38836,6 +39288,9 @@
       <c r="CE151" t="n">
         <v>0</v>
       </c>
+      <c r="CF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -39091,6 +39546,9 @@
       <c r="CE152" t="n">
         <v>0</v>
       </c>
+      <c r="CF152" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -39344,6 +39802,9 @@
       <c r="CE153" t="n">
         <v>0</v>
       </c>
+      <c r="CF153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -39597,6 +40058,9 @@
       <c r="CE154" t="n">
         <v>0</v>
       </c>
+      <c r="CF154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -39860,6 +40324,9 @@
       <c r="CE155" t="n">
         <v>0</v>
       </c>
+      <c r="CF155" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -40111,6 +40578,9 @@
         <v>0</v>
       </c>
       <c r="CE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40358,6 +40828,9 @@
       <c r="CE157" t="n">
         <v>0</v>
       </c>
+      <c r="CF157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -40609,6 +41082,9 @@
         <v>0</v>
       </c>
       <c r="CE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40856,6 +41332,9 @@
       <c r="CE159" t="n">
         <v>0</v>
       </c>
+      <c r="CF159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -41109,6 +41588,9 @@
       <c r="CE160" t="n">
         <v>0</v>
       </c>
+      <c r="CF160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -41370,6 +41852,9 @@
       <c r="CE161" t="n">
         <v>0</v>
       </c>
+      <c r="CF161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -41619,6 +42104,9 @@
       <c r="CE162" t="n">
         <v>0</v>
       </c>
+      <c r="CF162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -41874,6 +42362,9 @@
       <c r="CE163" t="n">
         <v>1</v>
       </c>
+      <c r="CF163" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -42125,6 +42616,9 @@
         <v>0</v>
       </c>
       <c r="CE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42372,6 +42866,9 @@
       <c r="CE165" t="n">
         <v>0</v>
       </c>
+      <c r="CF165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -42617,6 +43114,9 @@
       <c r="CE166" t="n">
         <v>0</v>
       </c>
+      <c r="CF166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -42876,6 +43376,9 @@
       <c r="CE167" t="n">
         <v>0</v>
       </c>
+      <c r="CF167" t="n">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -43131,6 +43634,9 @@
       <c r="CE168" t="n">
         <v>0</v>
       </c>
+      <c r="CF168" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -43386,6 +43892,9 @@
         <v>0</v>
       </c>
       <c r="CE169" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43635,6 +44144,9 @@
       <c r="CE170" t="n">
         <v>0</v>
       </c>
+      <c r="CF170" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -43882,6 +44394,9 @@
       <c r="CE171" t="n">
         <v>0</v>
       </c>
+      <c r="CF171" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -44137,6 +44652,9 @@
         <v>0</v>
       </c>
       <c r="CE172" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44385,6 +44903,9 @@
       </c>
       <c r="CE173" t="n">
         <v>0</v>
+      </c>
+      <c r="CF173" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="174">
@@ -44619,6 +45140,9 @@
       <c r="CE174" t="n">
         <v>0</v>
       </c>
+      <c r="CF174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -44860,6 +45384,9 @@
       <c r="CE175" t="n">
         <v>0</v>
       </c>
+      <c r="CF175" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
